--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail7 Features.xlsx
@@ -4328,7 +4328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,29 +4339,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4382,115 +4380,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4507,72 +4495,66 @@
         <v>2.294200031009583e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.90169766981519</v>
+        <v>1.498710491160897e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.844780288661706</v>
+        <v>3.809174643485522e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.498710491160897e-06</v>
+        <v>0.08678281482673289</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.809174643485522e-06</v>
+        <v>0.291951257397708</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08678281482673289</v>
+        <v>0.09258894669985018</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.291951257397708</v>
+        <v>1.878190838229183</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09258894669985018</v>
+        <v>1.977583400193529</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.855479659028739</v>
+        <v>3.901702135910647</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.977583400193529</v>
+        <v>9.354934126254217e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.901702135910647</v>
+        <v>247464385.8502747</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.354934126254217e-16</v>
+        <v>4.832057297602049e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>247464385.8502747</v>
+        <v>57.28832772646576</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.832057297602049e-07</v>
+        <v>0.0001131915490673419</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>57.28832772646576</v>
+        <v>9.0252349283898</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001131915490673419</v>
+        <v>1.429864760410392</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.0252349283898</v>
+        <v>0.009220002406446281</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.429864760410392</v>
+        <v>3.090419043285741</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009220002406446281</v>
+        <v>0.9589804249234432</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.090419043285741</v>
+        <v>1.539034547433103</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9589804249234432</v>
+        <v>24</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.539034547433103</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3280541124209738</v>
       </c>
     </row>
@@ -4587,72 +4569,66 @@
         <v>1.799186510393845e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.479952646038726</v>
+        <v>1.168074302327336e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8.091073189918475</v>
+        <v>3.826179232688559e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.168074302327336e-06</v>
+        <v>0.08014933043450506</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.826179232688559e-06</v>
+        <v>0.2958987494076759</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08014933043450506</v>
+        <v>0.09382055735274933</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2958987494076759</v>
+        <v>1.866872342984486</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09382055735274933</v>
+        <v>1.942851785475533</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.838243235621431</v>
+        <v>3.919469314515087</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.942851785475533</v>
+        <v>9.270313454092933e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.919469314515087</v>
+        <v>238168197.6415821</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.270313454092933e-16</v>
+        <v>4.996124631295552e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>238168197.6415821</v>
+        <v>52.58500981081679</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.996124631295552e-07</v>
+        <v>0.0001127874637763836</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>52.58500981081679</v>
+        <v>9.378953821002931</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001127874637763836</v>
+        <v>1.521403615087159</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.378953821002931</v>
+        <v>0.00992132384870285</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.521403615087159</v>
+        <v>3.154154666254227</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00992132384870285</v>
+        <v>0.9582363339186872</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.154154666254227</v>
+        <v>1.563422140514732</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9582363339186872</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.563422140514732</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3386152330605493</v>
       </c>
     </row>
@@ -4667,72 +4643,66 @@
         <v>1.446900170644249e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.875371029161037</v>
+        <v>9.235088109752603e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>5.754333998829868</v>
+        <v>3.838451971711605e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.235088109752603e-07</v>
+        <v>0.07149232100170506</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.838451971711605e-06</v>
+        <v>0.3035416777739633</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07149232100170506</v>
+        <v>0.09711136033592428</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3035416777739633</v>
+        <v>1.866947116665945</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09711136033592428</v>
+        <v>1.896542357315672</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.829665508591885</v>
+        <v>3.852597245039326</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.896542357315672</v>
+        <v>9.594928371969179e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.852597245039326</v>
+        <v>230185098.861293</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.594928371969179e-16</v>
+        <v>5.180311466995992e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>230185098.861293</v>
+        <v>50.83890043599426</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.180311466995992e-07</v>
+        <v>0.0001232570482635795</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>50.83890043599426</v>
+        <v>7.315899268137184</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001232570482635795</v>
+        <v>2.118003485468611</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.315899268137184</v>
+        <v>0.006597010833870052</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.118003485468611</v>
+        <v>3.283564986390143</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006597010833870052</v>
+        <v>0.9584265553817931</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.283564986390143</v>
+        <v>1.572238778019285</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9584265553817931</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.572238778019285</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2916716207858618</v>
       </c>
     </row>
@@ -4747,72 +4717,66 @@
         <v>1.204170659862472e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.11354466634829</v>
+        <v>7.386055625333433e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.015830740926043</v>
+        <v>3.847146575544536e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.386055625333433e-07</v>
+        <v>0.05967753410594133</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.847146575544536e-06</v>
+        <v>0.3118742422719818</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05967753410594133</v>
+        <v>0.1007091553647385</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3118742422719818</v>
+        <v>1.872391107578175</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1007091553647385</v>
+        <v>2.07023909711553</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.832920647775746</v>
+        <v>3.663569154065302</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.07023909711553</v>
+        <v>1.061060552668722e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.663569154065302</v>
+        <v>203718477.8602185</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.061060552668722e-15</v>
+        <v>5.862190805865955e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>203718477.8602185</v>
+        <v>44.03530554272562</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.862190805865955e-07</v>
+        <v>0.0001374811774149436</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>44.03530554272562</v>
+        <v>7.148081659448537</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001374811774149436</v>
+        <v>1.805253089256833</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.148081659448537</v>
+        <v>0.007024610577567298</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.805253089256833</v>
+        <v>3.171339434227272</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007024610577567298</v>
+        <v>0.9578104990038634</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.171339434227272</v>
+        <v>1.593150122762404</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9578104990038634</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.593150122762404</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2642681301470335</v>
       </c>
     </row>
@@ -4827,72 +4791,66 @@
         <v>1.049136319197804e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3548426147984455</v>
+        <v>5.928943741356261e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.576907887138054</v>
+        <v>3.852998575278804e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.928943741356261e-07</v>
+        <v>0.04395169961462865</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.852998575278804e-06</v>
+        <v>0.3141532975389504</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04395169961462865</v>
+        <v>0.1005211131887049</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3141532975389504</v>
+        <v>1.869141924253737</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1005211131887049</v>
+        <v>1.913368508741556</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.835829330786679</v>
+        <v>3.682523197152816</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.913368508741556</v>
+        <v>1.050166049393888e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.682523197152816</v>
+        <v>198276868.8411401</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.050166049393888e-15</v>
+        <v>5.980393435838299e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>198276868.8411401</v>
+        <v>41.2859305721514</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.980393435838299e-07</v>
+        <v>0.0001574852484825038</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>41.2859305721514</v>
+        <v>9.390310801634078</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001574852484825038</v>
+        <v>1.252705080967943</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.390310801634078</v>
+        <v>0.01388672431144777</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.252705080967943</v>
+        <v>2.88029392142511</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01388672431144777</v>
+        <v>0.9564470028913586</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.88029392142511</v>
+        <v>1.577733186299884</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9564470028913586</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.577733186299884</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2468147734294037</v>
       </c>
     </row>
@@ -4907,72 +4865,66 @@
         <v>9.656555735085351e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1529052886990376</v>
+        <v>4.701921712782209e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7551347698438922</v>
+        <v>3.85647539510323e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.701921712782209e-07</v>
+        <v>0.02487508468560041</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.85647539510323e-06</v>
+        <v>0.302242604902666</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02487508468560041</v>
+        <v>0.09187547951067228</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.302242604902666</v>
+        <v>1.872883907600639</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.09187547951067228</v>
+        <v>2.14077026702374</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.83886804770627</v>
+        <v>3.762925654881668</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.14077026702374</v>
+        <v>1.005767691573648e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.762925654881668</v>
+        <v>208823378.8921142</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.005767691573648e-15</v>
+        <v>5.702823291831974e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>208823378.8921142</v>
+        <v>43.8587164725116</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.702823291831974e-07</v>
+        <v>0.0001786818768551806</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>43.8587164725116</v>
+        <v>11.31483653053455</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001786818768551806</v>
+        <v>1.091261918413138</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.31483653053455</v>
+        <v>0.02287584121971982</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.091261918413138</v>
+        <v>2.554444206794031</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02287584121971982</v>
+        <v>0.9597022723001114</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.554444206794031</v>
+        <v>1.577053090258843</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9597022723001114</v>
+        <v>37</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.577053090258843</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2414479679723805</v>
       </c>
     </row>
@@ -4987,72 +4939,66 @@
         <v>9.373681156021883e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3163489785069932</v>
+        <v>3.59456500807199e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.053874080643496</v>
+        <v>3.857860181023949e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.59456500807199e-07</v>
+        <v>0.004422248883056842</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.857860181023949e-06</v>
+        <v>0.2728162117566085</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.004422248883056842</v>
+        <v>0.07436599964700973</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2728162117566085</v>
+        <v>1.878741561945611</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07436599964700973</v>
+        <v>1.97970476308032</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.847183430754554</v>
+        <v>3.696420231731937</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.97970476308032</v>
+        <v>1.04228449974504e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.696420231731937</v>
+        <v>203203513.4934748</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.04228449974504e-15</v>
+        <v>5.874142350809276e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>203203513.4934748</v>
+        <v>43.03766541671743</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.874142350809276e-07</v>
+        <v>0.0001845830361400485</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>43.03766541671743</v>
+        <v>11.34654743708844</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001845830361400485</v>
+        <v>1.07693976215428</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.34654743708844</v>
+        <v>0.02376398401425216</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.07693976215428</v>
+        <v>2.490335125490258</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02376398401425216</v>
+        <v>0.9604272518984893</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.490335125490258</v>
+        <v>1.572149959473419</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9604272518984893</v>
+        <v>28</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.572149959473419</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.23450081585055</v>
       </c>
     </row>
@@ -5067,72 +5013,66 @@
         <v>9.436896682386474e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2980700091419265</v>
+        <v>3.40833577356176e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.0502514477333</v>
+        <v>3.857378596639744e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.40833577356176e-07</v>
+        <v>-0.01396919677597363</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.857378596639744e-06</v>
+        <v>0.2351054949737462</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01396919677597363</v>
+        <v>0.05540900606850177</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2351054949737462</v>
+        <v>1.884131104550305</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05540900606850177</v>
+        <v>1.94963921615324</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.868405429758545</v>
+        <v>3.614250970853296</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.94963921615324</v>
+        <v>1.090215478669218e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.614250970853296</v>
+        <v>197519565.5895715</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.090215478669218e-15</v>
+        <v>6.06177709652567e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>197519565.5895715</v>
+        <v>42.53364356208613</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.06177709652567e-07</v>
+        <v>0.0001920150054010842</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>42.53364356208613</v>
+        <v>9.334171975445688</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001920150054010842</v>
+        <v>1.380909227188012</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.334171975445688</v>
+        <v>0.01672964653377758</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.380909227188012</v>
+        <v>2.675773915738497</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01672964653377758</v>
+        <v>0.959063586299443</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.675773915738497</v>
+        <v>1.506777846663407</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.959063586299443</v>
+        <v>25</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.506777846663407</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2090330020478463</v>
       </c>
     </row>
@@ -5147,72 +5087,66 @@
         <v>9.636568105790431e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2733405126767087</v>
+        <v>3.439053632192577e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.068334905286058</v>
+        <v>3.855304663243523e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.439053632192577e-07</v>
+        <v>-0.02873197634894696</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.855304663243523e-06</v>
+        <v>0.1992360871818604</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02873197634894696</v>
+        <v>0.0404802290108188</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1992360871818604</v>
+        <v>1.892306005260121</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0404802290108188</v>
+        <v>1.858174276612828</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.878488496830181</v>
+        <v>3.658760897609629</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.858174276612828</v>
+        <v>9.047860761116551e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.658760897609629</v>
+        <v>237738642.8578536</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.047860761116551e-16</v>
+        <v>5.048563251751668e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>237738642.8578536</v>
+        <v>51.13820348271529</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.048563251751668e-07</v>
+        <v>0.0001980300087175406</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>51.13820348271529</v>
+        <v>8.825681580788689</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001980300087175406</v>
+        <v>1.539649763550498</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.825681580788689</v>
+        <v>0.01542508322105695</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.539649763550498</v>
+        <v>2.710559834711773</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01542508322105695</v>
+        <v>0.960730498590578</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.710559834711773</v>
+        <v>1.483266488613298</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.960730498590578</v>
+        <v>25</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.483266488613298</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2073301406010635</v>
       </c>
     </row>
@@ -5227,72 +5161,66 @@
         <v>9.821377594565433e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2904036365931348</v>
+        <v>3.442793203259622e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.069872369144419</v>
+        <v>3.851940920942354e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.442793203259622e-07</v>
+        <v>-0.03962345270773569</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.851940920942354e-06</v>
+        <v>0.171725455371284</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03962345270773569</v>
+        <v>0.03103614097223771</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.171725455371284</v>
+        <v>1.897465257886715</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03103614097223771</v>
+        <v>2.053903487798816</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.884495709122116</v>
+        <v>3.853708606722656</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.053903487798816</v>
+        <v>8.177986658279947e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.853708606722656</v>
+        <v>260313178.8630272</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.177986658279947e-16</v>
+        <v>4.625636898683544e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>260313178.8630272</v>
+        <v>55.41645099378515</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.625636898683544e-07</v>
+        <v>0.0001870249999343229</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>55.41645099378515</v>
+        <v>10.06611700671997</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001870249999343229</v>
+        <v>1.229235602553284</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.06611700671997</v>
+        <v>0.01895062822902168</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.229235602553284</v>
+        <v>2.637690573796653</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01895062822902168</v>
+        <v>0.9622404667371711</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.637690573796653</v>
+        <v>1.47238856380689</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9622404667371711</v>
+        <v>25</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.47238856380689</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2269903731358494</v>
       </c>
     </row>
@@ -5307,72 +5235,66 @@
         <v>9.905320040186187e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3321215928842701</v>
+        <v>3.442793203259622e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.023676817754427</v>
+        <v>3.847632012334356e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.442793203259622e-07</v>
+        <v>-0.04702513375696597</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.847632012334356e-06</v>
+        <v>0.1545511047398534</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04702513375696597</v>
+        <v>0.02608460030732123</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1545511047398534</v>
+        <v>1.902050276490896</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02608460030732123</v>
+        <v>2.145865511242198</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.891433553749711</v>
+        <v>4.133571004467701</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.145865511242198</v>
+        <v>9.472213878513975e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.133571004467701</v>
+        <v>235856678.8776765</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.472213878513975e-16</v>
+        <v>5.117836952221994e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>235856678.8776765</v>
+        <v>52.69238464970228</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.117836952221994e-07</v>
+        <v>0.000189101216895489</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>52.69238464970228</v>
+        <v>11.62731833466945</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000189101216895489</v>
+        <v>1.061833882439403</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.62731833466945</v>
+        <v>0.0255654504537162</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.061833882439403</v>
+        <v>2.400214303157072</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0255654504537162</v>
+        <v>0.9625638656064991</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.400214303157072</v>
+        <v>1.462876653395501</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9625638656064991</v>
+        <v>16</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.462876653395501</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2468729653890657</v>
       </c>
     </row>
@@ -5387,72 +5309,66 @@
         <v>9.849738741820566e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3738888192139859</v>
+        <v>3.442793203259622e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.960679852767738</v>
+        <v>3.84272113610655e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.442793203259622e-07</v>
+        <v>-0.05192764704513943</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.84272113610655e-06</v>
+        <v>0.1464093793822274</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05192764704513943</v>
+        <v>0.02412588112479798</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1464093793822274</v>
+        <v>1.85865925379878</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02412588112479798</v>
+        <v>2.090189448384458</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.830200659270707</v>
+        <v>3.956852587622089</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.090189448384458</v>
+        <v>1.033719141038123e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.956852587622089</v>
+        <v>218524312.8390575</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.033719141038123e-15</v>
+        <v>5.474807064526271e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>218524312.8390575</v>
+        <v>49.36306123905898</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.474807064526271e-07</v>
+        <v>0.0001823403526340271</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>49.36306123905898</v>
+        <v>11.06040757676205</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001823403526340271</v>
+        <v>1.081516545287005</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.06040757676205</v>
+        <v>0.02230617229706809</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.081516545287005</v>
+        <v>2.518920579274419</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02230617229706809</v>
+        <v>0.9616812785312209</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.518920579274419</v>
+        <v>1.512893515121616</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9616812785312209</v>
+        <v>15</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.512893515121616</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2442841124198999</v>
       </c>
     </row>
@@ -5467,72 +5383,66 @@
         <v>9.660381662344655e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3962720839082416</v>
+        <v>3.442793203259622e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9316231309390175</v>
+        <v>3.837471220345669e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.442793203259622e-07</v>
+        <v>-0.05531553142127588</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.837471220345669e-06</v>
+        <v>0.1460730019127196</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05531553142127588</v>
+        <v>0.02439700082142167</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1460730019127196</v>
+        <v>1.846481043648796</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02439700082142167</v>
+        <v>1.836976350302567</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.804705135002451</v>
+        <v>4.05609234583773</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.836976350302567</v>
+        <v>1.616089453769503e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.05609234583773</v>
+        <v>139862298.7785889</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.616089453769503e-15</v>
+        <v>8.529313268330141e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>139862298.7785889</v>
+        <v>31.61307343989244</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.529313268330141e-07</v>
+        <v>0.0001965577510671863</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>31.61307343989244</v>
+        <v>8.925460905809114</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001965577510671863</v>
+        <v>1.574654880943492</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.925460905809114</v>
+        <v>0.01565854766538261</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.574654880943492</v>
+        <v>2.755756073840098</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01565854766538261</v>
+        <v>0.9590049814311887</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.755756073840098</v>
+        <v>1.650935542830037</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9590049814311887</v>
+        <v>15</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.650935542830037</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2107740281628012</v>
       </c>
     </row>
@@ -5547,72 +5457,66 @@
         <v>9.402632089827367e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3979205576180385</v>
+        <v>3.40770185290021e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9527761453532486</v>
+        <v>3.832106665539399e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.40770185290021e-07</v>
+        <v>-0.05687363253801112</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.832106665539399e-06</v>
+        <v>0.149884336733521</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05687363253801112</v>
+        <v>0.0256992892355589</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.149884336733521</v>
+        <v>1.841630263365418</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0256992892355589</v>
+        <v>1.804318399439492</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.792246928636651</v>
+        <v>3.724568361900079</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.804318399439492</v>
+        <v>1.916589765272689e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.724568361900079</v>
+        <v>118781726.8515431</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.916589765272689e-15</v>
+        <v>1.00529843443302e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>118781726.8515431</v>
+        <v>27.04135403883025</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.00529843443302e-06</v>
+        <v>0.0001859942049118946</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>27.04135403883025</v>
+        <v>8.671987266957068</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001859942049118946</v>
+        <v>1.666175026147004</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.671987266957068</v>
+        <v>0.01398738973732206</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.666175026147004</v>
+        <v>2.886816898857493</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01398738973732206</v>
+        <v>0.9596698452773156</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.886816898857493</v>
+        <v>1.631546209379613</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9596698452773156</v>
+        <v>15</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.631546209379613</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2048206312435538</v>
       </c>
     </row>
@@ -5627,72 +5531,66 @@
         <v>9.152682598359445e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3968827578202252</v>
+        <v>3.243428294015879e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9813604348745373</v>
+        <v>3.826836770925279e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.243428294015879e-07</v>
+        <v>-0.05650552649279898</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.826836770925279e-06</v>
+        <v>0.1531309222116181</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05650552649279898</v>
+        <v>0.02663888973529294</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1531309222116181</v>
+        <v>1.832413329158529</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02663888973529294</v>
+        <v>1.765570812324285</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.77601640402635</v>
+        <v>3.801171053433007</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.765570812324285</v>
+        <v>1.840120389723883e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.801171053433007</v>
+        <v>121311706.7307009</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.840120389723883e-15</v>
+        <v>9.821064020359625e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>121311706.7307009</v>
+        <v>27.08018726845073</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.821064020359625e-07</v>
+        <v>0.0001467246563783556</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>27.08018726845073</v>
+        <v>9.356340840360465</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001467246563783556</v>
+        <v>1.223242716558971</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.356340840360465</v>
+        <v>0.01284443985903679</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.223242716558971</v>
+        <v>2.930700163427584</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01284443985903679</v>
+        <v>0.9592377985711635</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.930700163427584</v>
+        <v>1.649595174831709</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9592377985711635</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.649595174831709</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2203793383859687</v>
       </c>
     </row>
@@ -5707,72 +5605,66 @@
         <v>8.949540251977416e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4079368326227358</v>
+        <v>3.029122638095939e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9770170734294332</v>
+        <v>3.821795202468864e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.029122638095939e-07</v>
+        <v>-0.05479050926793792</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.821795202468864e-06</v>
+        <v>0.1548142664246189</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05479050926793792</v>
+        <v>0.02696587834204674</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1548142664246189</v>
+        <v>1.834695994305799</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02696587834204674</v>
+        <v>1.810699797744163</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.776388603654242</v>
+        <v>3.898366543388377</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.810699797744163</v>
+        <v>1.749507151160275e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.898366543388377</v>
+        <v>125993514.9242772</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.749507151160275e-15</v>
+        <v>9.426289280994704e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>125993514.9242772</v>
+        <v>27.77231649243726</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.426289280994704e-07</v>
+        <v>0.000139146502857593</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>27.77231649243726</v>
+        <v>9.617450075072968</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000139146502857593</v>
+        <v>1.150117410879129</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.617450075072968</v>
+        <v>0.01287040391906164</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.150117410879129</v>
+        <v>2.782010231899811</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01287040391906164</v>
+        <v>0.9585181761061951</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.782010231899811</v>
+        <v>1.661620033617444</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9585181761061951</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.661620033617444</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2270082192230088</v>
       </c>
     </row>
@@ -6149,7 +6041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.41109226274944</v>
+        <v>1.397138376457487</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.389244020330085</v>
@@ -6238,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.41431882117043</v>
+        <v>1.404800058799291</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.376299374345098</v>
@@ -6327,7 +6219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408843816495329</v>
+        <v>1.398716749812502</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.423557292369686</v>
@@ -6416,7 +6308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.420240606870376</v>
+        <v>1.40905631403344</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.345166563019834</v>
@@ -6505,7 +6397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.433977693522704</v>
+        <v>1.427519919779505</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.154031432597137</v>
@@ -6594,7 +6486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.434020395975245</v>
+        <v>1.429960231225121</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.153380765861987</v>
@@ -6683,7 +6575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.489346472145379</v>
+        <v>1.477248964828913</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.222893528194626</v>
@@ -6772,7 +6664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.508876022335061</v>
+        <v>1.493613192051915</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.269387170838215</v>
@@ -6861,7 +6753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.513812909048207</v>
+        <v>1.498659718395846</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.539457587365987</v>
@@ -6950,7 +6842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.489957216657103</v>
+        <v>1.472708323441154</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.602452043438062</v>
@@ -7039,7 +6931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.487761075807187</v>
+        <v>1.465316459800022</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.564259414901918</v>
@@ -7128,7 +7020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.478843205831572</v>
+        <v>1.456594703269374</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.467045168556487</v>
@@ -7217,7 +7109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.477160884398881</v>
+        <v>1.460613154528047</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.482179524072567</v>
@@ -7306,7 +7198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.473574633631026</v>
+        <v>1.45270436776915</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.457824914251632</v>
@@ -7395,7 +7287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.466690228100608</v>
+        <v>1.447182323137428</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.551360129794662</v>
@@ -7484,7 +7376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.471305385615715</v>
+        <v>1.453694286953393</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.338931366608864</v>
@@ -7573,7 +7465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.482134795828189</v>
+        <v>1.464922460128177</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.326863598501349</v>
@@ -7662,7 +7554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.508088366388362</v>
+        <v>1.489537617920072</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.458975101775819</v>
@@ -7751,7 +7643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.498807129710449</v>
+        <v>1.481596382834645</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.444251275087101</v>
@@ -7840,7 +7732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.482648198361416</v>
+        <v>1.464038897882818</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.500160205707742</v>
@@ -7929,7 +7821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.483747585663467</v>
+        <v>1.45049315503121</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.412353314684184</v>
@@ -8018,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.448301196538074</v>
+        <v>1.431305949970061</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.223802268461825</v>
@@ -8107,7 +7999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.458461642913536</v>
+        <v>1.440240397565572</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.296403198226836</v>
@@ -8196,7 +8088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.462373332568852</v>
+        <v>1.443308885151367</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.281039755809384</v>
@@ -8285,7 +8177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.471257880235563</v>
+        <v>1.452193187137816</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.239937980388477</v>
@@ -8374,7 +8266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.478461622941868</v>
+        <v>1.463351926375072</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.345794608342397</v>
@@ -8463,7 +8355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.440629260858842</v>
+        <v>1.435071550176376</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.258533354380565</v>
@@ -8552,7 +8444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.447684346402893</v>
+        <v>1.439269742043473</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.228127390368932</v>
@@ -8641,7 +8533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.429177464041664</v>
+        <v>1.422799132756913</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.356163279577618</v>
@@ -8730,7 +8622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.428077500154247</v>
+        <v>1.420093456860569</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.345957315232483</v>
@@ -8819,7 +8711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.429375672694173</v>
+        <v>1.41910134163819</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.269974181776145</v>
@@ -8908,7 +8800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.419046667231147</v>
+        <v>1.400725838628086</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.485837870657086</v>
@@ -8997,7 +8889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.42061759365334</v>
+        <v>1.402726013039635</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.454237236316576</v>
@@ -9086,7 +8978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.433477100885488</v>
+        <v>1.413167122566194</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.261671159560786</v>
@@ -9175,7 +9067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.446671127017454</v>
+        <v>1.428166158297828</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.317598234943148</v>
@@ -9264,7 +9156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.480546491640152</v>
+        <v>1.455376219464169</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.075359050840217</v>
@@ -9353,7 +9245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.486849216513768</v>
+        <v>1.457751945345067</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.349150252098642</v>
@@ -9442,7 +9334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.484014560480626</v>
+        <v>1.453490058113809</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.378687556534763</v>
@@ -9531,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.498068427204971</v>
+        <v>1.46691575390696</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.403814250653697</v>
@@ -9620,7 +9512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.496307724211739</v>
+        <v>1.46672990110633</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.222600380689494</v>
@@ -9709,7 +9601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.487939338509233</v>
+        <v>1.455391618082136</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.234661561788206</v>
@@ -9798,7 +9690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.509978770710774</v>
+        <v>1.467718458855791</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.376793872287424</v>
@@ -9887,7 +9779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.509009152371174</v>
+        <v>1.466105165743722</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.344845115340788</v>
@@ -9976,7 +9868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.534853360029805</v>
+        <v>1.488261331264545</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.332015965843412</v>
@@ -10065,7 +9957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.546277841159675</v>
+        <v>1.499901402096168</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.378618289680466</v>
@@ -10154,7 +10046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.541633525094758</v>
+        <v>1.492183331932655</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.297613921226752</v>
@@ -10243,7 +10135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.538141545977128</v>
+        <v>1.502547680235736</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.390210787785219</v>
@@ -10332,7 +10224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.527841115452618</v>
+        <v>1.494317630103644</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.398843235482396</v>
@@ -10421,7 +10313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.532380142338564</v>
+        <v>1.496469186151445</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.454225936183188</v>
@@ -10510,7 +10402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.520391037444662</v>
+        <v>1.485176510088791</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.441298398342136</v>
@@ -10599,7 +10491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.502592546860655</v>
+        <v>1.475212088019412</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.54600110088775</v>
@@ -10688,7 +10580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.507391407000121</v>
+        <v>1.482112915012572</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.348604859689021</v>
@@ -10777,7 +10669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.503233231755391</v>
+        <v>1.479607885571537</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.481720932474317</v>
@@ -10866,7 +10758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.500979008055829</v>
+        <v>1.474774268998833</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.354722284112845</v>
@@ -10955,7 +10847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.497322321789108</v>
+        <v>1.470771364489188</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.542602955443644</v>
@@ -11044,7 +10936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.513855675856194</v>
+        <v>1.484815958230243</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.49302725881898</v>
@@ -11133,7 +11025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.533671226891648</v>
+        <v>1.504052386258375</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.714540891318413</v>
@@ -11222,7 +11114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.528959067752658</v>
+        <v>1.500052624778172</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.842063706742408</v>
@@ -11311,7 +11203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.509504234534541</v>
+        <v>1.478531589009785</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.490768795843924</v>
@@ -11400,7 +11292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.504798316986734</v>
+        <v>1.472104780524173</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.597642765822284</v>
@@ -11489,7 +11381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.507237760058964</v>
+        <v>1.469580179354522</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.56670543755719</v>
@@ -11775,7 +11667,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.642324740089048</v>
+        <v>1.597267506473831</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.025630010527844</v>
@@ -11864,7 +11756,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.631624342307507</v>
+        <v>1.584202541515198</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.110383806048856</v>
@@ -11953,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620096597479611</v>
+        <v>1.57479896613012</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.04126196500733</v>
@@ -12042,7 +11934,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.636014840232888</v>
+        <v>1.593751891471917</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.95373978045718</v>
@@ -12131,7 +12023,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.638653133651956</v>
+        <v>1.595528327090294</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.506413898716845</v>
@@ -12220,7 +12112,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.656192022221013</v>
+        <v>1.614639617113541</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.888869656234818</v>
@@ -12309,7 +12201,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.686217220485381</v>
+        <v>1.636070898598007</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.112381092885553</v>
@@ -12398,7 +12290,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.663304759719433</v>
+        <v>1.618682107631091</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.502981201607976</v>
@@ -12487,7 +12379,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655571156438965</v>
+        <v>1.619423320178392</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.551055638599985</v>
@@ -12576,7 +12468,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.645733204989315</v>
+        <v>1.611812517170247</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.537633018725619</v>
@@ -12665,7 +12557,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.644336037671555</v>
+        <v>1.607437389628322</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.590291184499691</v>
@@ -12754,7 +12646,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620114179817374</v>
+        <v>1.590221810663539</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.247592171314299</v>
@@ -12843,7 +12735,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620580738098347</v>
+        <v>1.586736621175054</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.149795288278716</v>
@@ -12932,7 +12824,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612015925197469</v>
+        <v>1.5825737854421</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.227627385992287</v>
@@ -13021,7 +12913,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.614963563638644</v>
+        <v>1.585466953478415</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.875192625057495</v>
@@ -13110,7 +13002,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.611234609321282</v>
+        <v>1.592102766657032</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.17998134056042</v>
@@ -13199,7 +13091,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.626749420485134</v>
+        <v>1.608500335411802</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.445215514249607</v>
@@ -13288,7 +13180,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.634427877690221</v>
+        <v>1.609813820061112</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.389245266351357</v>
@@ -13377,7 +13269,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.619242795641225</v>
+        <v>1.594628697349166</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.29110810987844</v>
@@ -13466,7 +13358,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.619120980047719</v>
+        <v>1.595508938869743</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.418768819002535</v>
@@ -13555,7 +13447,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60877994372343</v>
+        <v>1.585718679712578</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.86634219403754</v>
@@ -13644,7 +13536,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.599992924295717</v>
+        <v>1.581426944201314</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.061213053136921</v>
@@ -13733,7 +13625,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.61862725289276</v>
+        <v>1.5925675408439</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.096269720693523</v>
@@ -13822,7 +13714,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.626064464519111</v>
+        <v>1.596463745712204</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.43188223580591</v>
@@ -13911,7 +13803,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625676722664178</v>
+        <v>1.596444289121248</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.345626369318261</v>
@@ -14000,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.628511458998565</v>
+        <v>1.59981244831082</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.418647549389148</v>
@@ -14089,7 +13981,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.625514984164206</v>
+        <v>1.600939255982256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.825531313837636</v>
@@ -14178,7 +14070,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624118894764187</v>
+        <v>1.600354904521498</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.788846388524302</v>
@@ -14267,7 +14159,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618904112161092</v>
+        <v>1.594571969170951</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.779091051316088</v>
@@ -14356,7 +14248,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615751326132688</v>
+        <v>1.593085996327333</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.771043564560888</v>
@@ -14445,7 +14337,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.616678901741843</v>
+        <v>1.595731664974359</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.754831425734336</v>
@@ -14534,7 +14426,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.613868581213445</v>
+        <v>1.587301236190587</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.889086780246926</v>
@@ -14623,7 +14515,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.612314492161499</v>
+        <v>1.58721108330141</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.906980288351883</v>
@@ -14712,7 +14604,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614398133691333</v>
+        <v>1.585827191601007</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.862719622808466</v>
@@ -14801,7 +14693,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618993804702451</v>
+        <v>1.586024700728621</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.674995822344075</v>
@@ -14890,7 +14782,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.637725710798834</v>
+        <v>1.605010102030805</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.735800978756391</v>
@@ -14979,7 +14871,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629006331996042</v>
+        <v>1.597335174152598</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.674976010054773</v>
@@ -15068,7 +14960,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.633458799136832</v>
+        <v>1.604175927335276</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.837709203867648</v>
@@ -15157,7 +15049,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625323093532425</v>
+        <v>1.592980163180456</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.900471884951395</v>
@@ -15246,7 +15138,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632242256469699</v>
+        <v>1.602183554026495</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.715928087277582</v>
@@ -15335,7 +15227,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.626449496002641</v>
+        <v>1.596977136597809</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.764283866798038</v>
@@ -15424,7 +15316,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639305360808191</v>
+        <v>1.605815819203362</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.113596204873867</v>
@@ -15513,7 +15405,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.639134278518969</v>
+        <v>1.608271521438554</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.035970238768594</v>
@@ -15602,7 +15494,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.640917300757243</v>
+        <v>1.61568231808558</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.557311758647316</v>
@@ -15691,7 +15583,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.648993841185151</v>
+        <v>1.61606395791513</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.589401460288858</v>
@@ -15780,7 +15672,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.636871457598394</v>
+        <v>1.603718453616381</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.600593588733024</v>
@@ -15869,7 +15761,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.638625734895969</v>
+        <v>1.611310291907834</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.572930139794804</v>
@@ -15958,7 +15850,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639561265942649</v>
+        <v>1.61143659221386</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.654938769767912</v>
@@ -16047,7 +15939,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63530353091238</v>
+        <v>1.606502648429167</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.31160725689712</v>
@@ -16136,7 +16028,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.639966053915784</v>
+        <v>1.614706663534549</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.331276077594408</v>
@@ -16225,7 +16117,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.636298950887169</v>
+        <v>1.616256009874973</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.946938244256399</v>
@@ -16314,7 +16206,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.631988069015837</v>
+        <v>1.616301163654589</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.238225245753287</v>
@@ -16403,7 +16295,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.622827025339408</v>
+        <v>1.604231401923871</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.100737215484847</v>
@@ -16492,7 +16384,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.622941820626682</v>
+        <v>1.609200308754242</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.051987405457489</v>
@@ -16581,7 +16473,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.619582897589947</v>
+        <v>1.602820040065925</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.3038177069868</v>
@@ -16670,7 +16562,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.623492129171601</v>
+        <v>1.602631697251977</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.177892272029282</v>
@@ -16759,7 +16651,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.635000422128294</v>
+        <v>1.608818752415433</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.130453519828654</v>
@@ -16848,7 +16740,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.633948822431799</v>
+        <v>1.604534828610215</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.267513318921883</v>
@@ -16937,7 +16829,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.633821584402936</v>
+        <v>1.599668618886157</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.127229826014973</v>
@@ -17026,7 +16918,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.634072676198213</v>
+        <v>1.60097120796842</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.381972731734781</v>
@@ -17115,7 +17007,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.647248374101051</v>
+        <v>1.610114308238701</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.312940821325613</v>
@@ -17401,7 +17293,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.560385650703385</v>
+        <v>1.514529924609037</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.997337742880378</v>
@@ -17490,7 +17382,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.536656973128554</v>
+        <v>1.496290614809807</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.792632019049673</v>
@@ -17579,7 +17471,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.515381667307951</v>
+        <v>1.482791356045899</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.501456135626559</v>
@@ -17668,7 +17560,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.523809449321831</v>
+        <v>1.494884485631717</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.616409259732277</v>
@@ -17757,7 +17649,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.520549562304001</v>
+        <v>1.493149662537735</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.488176140917184</v>
@@ -17846,7 +17738,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52969546492429</v>
+        <v>1.50758796000045</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.428516252023884</v>
@@ -17935,7 +17827,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.532361991278881</v>
+        <v>1.510350932234914</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.567873668010569</v>
@@ -18024,7 +17916,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.537386439416417</v>
+        <v>1.516058625714374</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.760805916173398</v>
@@ -18113,7 +18005,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.530632684356339</v>
+        <v>1.510033028298077</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.688588648834248</v>
@@ -18202,7 +18094,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.531000971212356</v>
+        <v>1.506749525765894</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.7218364072248</v>
@@ -18291,7 +18183,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531113636749779</v>
+        <v>1.506563233769004</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.636633481042616</v>
@@ -18380,7 +18272,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513522150433845</v>
+        <v>1.490346158717974</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.545918137012054</v>
@@ -18469,7 +18361,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.51148471101896</v>
+        <v>1.487230148791376</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.76221410242698</v>
@@ -18558,7 +18450,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.504960421833622</v>
+        <v>1.482505520188526</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.511155241316477</v>
@@ -18647,7 +18539,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.508400112518065</v>
+        <v>1.485280439482302</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.813156437054013</v>
@@ -18736,7 +18628,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.514979017820635</v>
+        <v>1.492488820153891</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.642204673329987</v>
@@ -18825,7 +18717,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.548277205210258</v>
+        <v>1.522035923459325</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.342823214737467</v>
@@ -18914,7 +18806,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577777844614836</v>
+        <v>1.549923461492509</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.725525195420624</v>
@@ -19003,7 +18895,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57412444028777</v>
+        <v>1.54624697805219</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.598558571333023</v>
@@ -19092,7 +18984,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.56454328946227</v>
+        <v>1.538159073334532</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.631169215650971</v>
@@ -19181,7 +19073,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555135437061252</v>
+        <v>1.518604587803429</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.669403260002792</v>
@@ -19270,7 +19162,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557179723932853</v>
+        <v>1.526567972494908</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.488916252226283</v>
@@ -19359,7 +19251,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561858564150361</v>
+        <v>1.52955187053459</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.709210536496664</v>
@@ -19448,7 +19340,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567982646140056</v>
+        <v>1.53855843498338</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.773460729796627</v>
@@ -19537,7 +19429,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567473146401829</v>
+        <v>1.542643130340432</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.977082045713839</v>
@@ -19626,7 +19518,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.582076929264631</v>
+        <v>1.551864999537159</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.692696798101494</v>
@@ -19715,7 +19607,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594434336631672</v>
+        <v>1.559516832960016</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.00793248129243</v>
@@ -19804,7 +19696,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59961813739428</v>
+        <v>1.562663027083106</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.935690235708894</v>
@@ -19893,7 +19785,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.600077890873366</v>
+        <v>1.5587700433477</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.298122967809825</v>
@@ -19982,7 +19874,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.595047470221441</v>
+        <v>1.565475605623085</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.402169491201231</v>
@@ -20071,7 +19963,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.580335915198451</v>
+        <v>1.553252567768051</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.514286468426767</v>
@@ -20160,7 +20052,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.573883676616147</v>
+        <v>1.535264813147678</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.166580125629479</v>
@@ -20249,7 +20141,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.568091798703533</v>
+        <v>1.53272715042057</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.517487314842552</v>
@@ -20338,7 +20230,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.574329169850302</v>
+        <v>1.538898146324289</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.063884009220806</v>
@@ -20427,7 +20319,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582544217544336</v>
+        <v>1.546992878229271</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.57963589466332</v>
@@ -20516,7 +20408,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.589829309256911</v>
+        <v>1.555549441505034</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.815769457303155</v>
@@ -20605,7 +20497,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.578774872261728</v>
+        <v>1.540663160087633</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.001713443585218</v>
@@ -20694,7 +20586,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575801650734544</v>
+        <v>1.533573765825084</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.977078333226079</v>
@@ -20783,7 +20675,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.572942509908271</v>
+        <v>1.527781590946255</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.111734180827581</v>
@@ -20872,7 +20764,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582688684972897</v>
+        <v>1.533375530960468</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.733331803400741</v>
@@ -20961,7 +20853,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.566193402072398</v>
+        <v>1.520582431062539</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.896807434562408</v>
@@ -21050,7 +20942,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.563112747148425</v>
+        <v>1.524336253382474</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.031678499948377</v>
@@ -21139,7 +21031,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.562403613510576</v>
+        <v>1.52295252477796</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.957034896568222</v>
@@ -21228,7 +21120,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.557354177884155</v>
+        <v>1.518855896813459</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.95246880393092</v>
@@ -21317,7 +21209,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.555393050413006</v>
+        <v>1.516555094409191</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.979468392599066</v>
@@ -21406,7 +21298,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.570384083766669</v>
+        <v>1.529229530050051</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.75101710616243</v>
@@ -21495,7 +21387,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.578100230059168</v>
+        <v>1.537814100341744</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.7098824362304</v>
@@ -21584,7 +21476,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566150557808192</v>
+        <v>1.522843113067172</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.956530386540329</v>
@@ -21673,7 +21565,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.568531453919605</v>
+        <v>1.521596073788323</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.070807675408819</v>
@@ -21762,7 +21654,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.566037765291584</v>
+        <v>1.521442098573731</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.101528331878274</v>
@@ -21851,7 +21743,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.561159789118588</v>
+        <v>1.523495832257224</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.267515194430477</v>
@@ -21940,7 +21832,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.560909120684147</v>
+        <v>1.52773633332881</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.075474371642993</v>
@@ -22029,7 +21921,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.572601223638541</v>
+        <v>1.527600698488055</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.225154335839135</v>
@@ -22118,7 +22010,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553525880859024</v>
+        <v>1.512805340963772</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.303528359064194</v>
@@ -22207,7 +22099,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.560009462267046</v>
+        <v>1.508378561755001</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.681270506929246</v>
@@ -22296,7 +22188,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.558926838778091</v>
+        <v>1.50780629990741</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.754851968357173</v>
@@ -22385,7 +22277,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.561197199240798</v>
+        <v>1.505636486789147</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.19069565638907</v>
@@ -22474,7 +22366,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.558545581146039</v>
+        <v>1.500305239040354</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.40531507171129</v>
@@ -22563,7 +22455,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.566810964504133</v>
+        <v>1.511933917479583</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.09173325180108</v>
@@ -22652,7 +22544,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.568992864579938</v>
+        <v>1.508911606131715</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.967722220145081</v>
@@ -22741,7 +22633,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.565070104505569</v>
+        <v>1.509232017939566</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.45268753329638</v>
@@ -23027,7 +22919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.436517746869162</v>
+        <v>1.408086397793923</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.385417413260416</v>
@@ -23116,7 +23008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.446776492044235</v>
+        <v>1.417363952439941</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.383305403920488</v>
@@ -23205,7 +23097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.458990323255952</v>
+        <v>1.428679547249214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.250296242901623</v>
@@ -23294,7 +23186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.454737275798367</v>
+        <v>1.430156209036067</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.346886852732697</v>
@@ -23383,7 +23275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.463805169117045</v>
+        <v>1.431837039344176</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.17544183303674</v>
@@ -23472,7 +23364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491815950947715</v>
+        <v>1.46307616084865</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.431907677464228</v>
@@ -23561,7 +23453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.482843757929918</v>
+        <v>1.453385474918897</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.352267179722409</v>
@@ -23650,7 +23542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.469199888606248</v>
+        <v>1.439824679074839</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.230810417893973</v>
@@ -23739,7 +23631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.458628142010546</v>
+        <v>1.437030466819739</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.364698913229768</v>
@@ -23828,7 +23720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.453100928989334</v>
+        <v>1.436777131086779</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.31069348417554</v>
@@ -23917,7 +23809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.428309869830602</v>
+        <v>1.404851961646927</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.261948649722186</v>
@@ -24006,7 +23898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.422266633069834</v>
+        <v>1.40441334405558</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.309564082240459</v>
@@ -24095,7 +23987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.419140719590195</v>
+        <v>1.402467130652821</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.291675570738979</v>
@@ -24184,7 +24076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.399331773482266</v>
+        <v>1.383727514898486</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.320595406723851</v>
@@ -24273,7 +24165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.381670091244327</v>
+        <v>1.36659464285102</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.25164991820843</v>
@@ -24362,7 +24254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.370430054259442</v>
+        <v>1.36131319709836</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.304387426377181</v>
@@ -24451,7 +24343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.372140001314731</v>
+        <v>1.356295990937409</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.387901210370983</v>
@@ -24540,7 +24432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.355082230608981</v>
+        <v>1.344486229988588</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.270041146321996</v>
@@ -24629,7 +24521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.328752364034587</v>
+        <v>1.314423407707727</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.037618427024591</v>
@@ -24718,7 +24610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.325093081223643</v>
+        <v>1.3191047571703</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.227634910276788</v>
@@ -24807,7 +24699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.315169536829009</v>
+        <v>1.305360799677023</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.120977885041808</v>
@@ -24896,7 +24788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.317041202955722</v>
+        <v>1.310380157128099</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.079971393767802</v>
@@ -24985,7 +24877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.318368225585715</v>
+        <v>1.313199938755738</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.140938684689521</v>
@@ -25074,7 +24966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.325914613411659</v>
+        <v>1.322664141566395</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.117808381073198</v>
@@ -25163,7 +25055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.328270477252658</v>
+        <v>1.324310264039903</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.106845375959225</v>
@@ -25252,7 +25144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.360376194354003</v>
+        <v>1.351051459447276</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.985877320630319</v>
@@ -25341,7 +25233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.345328518425076</v>
+        <v>1.34015833588675</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.182576206939274</v>
@@ -25430,7 +25322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.341207862210726</v>
+        <v>1.337582040561715</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.110656884922581</v>
@@ -25519,7 +25411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.309447315571455</v>
+        <v>1.309210186186319</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.982968342741014</v>
@@ -25608,7 +25500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.31197394471792</v>
+        <v>1.312355282842386</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.981766614277637</v>
@@ -25697,7 +25589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.325065844456703</v>
+        <v>1.3262010352489</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.03754873213766</v>
@@ -25786,7 +25678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.338097150312252</v>
+        <v>1.329818002747678</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.905384248850207</v>
@@ -25875,7 +25767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.347127727833795</v>
+        <v>1.337194004533167</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.843950463805864</v>
@@ -25964,7 +25856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.355986375827865</v>
+        <v>1.347074165045363</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.128922726236446</v>
@@ -26053,7 +25945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.363907538338339</v>
+        <v>1.353578484758577</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.09273346883478</v>
@@ -26142,7 +26034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.36940067240262</v>
+        <v>1.359107343499143</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.083443782729824</v>
@@ -26231,7 +26123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.358424981610021</v>
+        <v>1.345708913938126</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.019886194837737</v>
@@ -26320,7 +26212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.382863743217464</v>
+        <v>1.367387603574842</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.975865120001935</v>
@@ -26409,7 +26301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.386712631047652</v>
+        <v>1.362985934837494</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.04057044915992</v>
@@ -26498,7 +26390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.388333693774477</v>
+        <v>1.363354473448987</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.001535730561847</v>
@@ -26587,7 +26479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.399684445014669</v>
+        <v>1.372239440508892</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.962143611295596</v>
@@ -26676,7 +26568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.396048081002774</v>
+        <v>1.370107040481806</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.006458989984278</v>
@@ -26765,7 +26657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.412995309016927</v>
+        <v>1.385496080540292</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.067779103525743</v>
@@ -26854,7 +26746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.473670793380766</v>
+        <v>1.435220583186157</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.230645379638452</v>
@@ -26943,7 +26835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.498854960949632</v>
+        <v>1.452717893692313</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.130174755561954</v>
@@ -27032,7 +26924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.486736961443023</v>
+        <v>1.44243523053822</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.245576392160806</v>
@@ -27121,7 +27013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.482755289333355</v>
+        <v>1.449147019630055</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.32380780334238</v>
@@ -27210,7 +27102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.526346904945533</v>
+        <v>1.487381208067316</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.508821192445955</v>
@@ -27299,7 +27191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.531718966065743</v>
+        <v>1.496510148977167</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.541483396881783</v>
@@ -27388,7 +27280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.53019545806047</v>
+        <v>1.490329027139155</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.676880558337128</v>
@@ -27477,7 +27369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.527483523358417</v>
+        <v>1.48584987428699</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.593688535140565</v>
@@ -27566,7 +27458,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.548703589308518</v>
+        <v>1.506061119503528</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.191364162989985</v>
@@ -27655,7 +27547,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.547338033549369</v>
+        <v>1.493939685651724</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.189044181655506</v>
@@ -27744,7 +27636,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.549121616376356</v>
+        <v>1.499887615881535</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.301828364762024</v>
@@ -27833,7 +27725,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.54873334355932</v>
+        <v>1.4934575138113</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.999261484392745</v>
@@ -27922,7 +27814,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.558039178930544</v>
+        <v>1.503657313460465</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.282402297138053</v>
@@ -28011,7 +27903,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.569627526214747</v>
+        <v>1.511894459761659</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.06728654046549</v>
@@ -28100,7 +27992,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.551820172104858</v>
+        <v>1.497188144553261</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.259903506463446</v>
@@ -28189,7 +28081,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.530316717832319</v>
+        <v>1.480257647760313</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.873620779393951</v>
@@ -28278,7 +28170,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.547603125046674</v>
+        <v>1.4943204245689</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.748645782457557</v>
@@ -28367,7 +28259,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.56390265787429</v>
+        <v>1.50798667661051</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.941024320875136</v>
@@ -28653,7 +28545,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.585022482241899</v>
+        <v>1.550546013355782</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.817063843787615</v>
@@ -28742,7 +28634,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.599461488891113</v>
+        <v>1.562507437109049</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.67555227761667</v>
@@ -28831,7 +28723,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60056634769571</v>
+        <v>1.559802562877996</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.816728187266385</v>
@@ -28920,7 +28812,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.60401469665026</v>
+        <v>1.565300657240014</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.835615883235133</v>
@@ -29009,7 +28901,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608062454211598</v>
+        <v>1.571897751747533</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.764962479017536</v>
@@ -29098,7 +28990,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.615112553739243</v>
+        <v>1.579222654568732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.638153942868816</v>
@@ -29187,7 +29079,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.618806759218052</v>
+        <v>1.581207426677488</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.927473989886406</v>
@@ -29276,7 +29168,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605653047242281</v>
+        <v>1.564245484334692</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.711143808733336</v>
@@ -29365,7 +29257,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611014830702175</v>
+        <v>1.572283438753614</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.918113286328111</v>
@@ -29454,7 +29346,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.591092633275924</v>
+        <v>1.555907719762548</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.755356871014478</v>
@@ -29543,7 +29435,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584275961313038</v>
+        <v>1.545202595626419</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.922794439034362</v>
@@ -29632,7 +29524,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.568921801429079</v>
+        <v>1.535788826105759</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.094431603101953</v>
@@ -29721,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.569653777420428</v>
+        <v>1.539301021934922</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.922758962969096</v>
@@ -29810,7 +29702,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.550592278737667</v>
+        <v>1.522310829884153</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.038150241358585</v>
@@ -29899,7 +29791,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.550749423012395</v>
+        <v>1.52410146196976</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.875343557955528</v>
@@ -29988,7 +29880,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.558582720186651</v>
+        <v>1.53786876767978</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.744695039782066</v>
@@ -30077,7 +29969,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.566872690919583</v>
+        <v>1.537410510357397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.697167153215694</v>
@@ -30166,7 +30058,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577115919350091</v>
+        <v>1.54796049594361</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.866589777225738</v>
@@ -30255,7 +30147,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.575865992372035</v>
+        <v>1.546317579209098</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.274051703217347</v>
@@ -30344,7 +30236,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.579659962427785</v>
+        <v>1.54899317639614</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.243433083729278</v>
@@ -30433,7 +30325,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.567800053926161</v>
+        <v>1.536347868819229</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.901163732204444</v>
@@ -30522,7 +30414,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.550974329483018</v>
+        <v>1.525016675213618</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.768056218580733</v>
@@ -30611,7 +30503,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.565095063912785</v>
+        <v>1.536721386357059</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.739982429015674</v>
@@ -30700,7 +30592,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570165159053462</v>
+        <v>1.539844275479422</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.748606396562247</v>
@@ -30789,7 +30681,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573826467543455</v>
+        <v>1.542427345020209</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.712756713548746</v>
@@ -30878,7 +30770,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568145978187332</v>
+        <v>1.536572858028537</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.654213858667397</v>
@@ -30967,7 +30859,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.554991664099445</v>
+        <v>1.525831302596874</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.586599924363704</v>
@@ -31056,7 +30948,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.560631253726149</v>
+        <v>1.529204226377705</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.546577793212605</v>
@@ -31145,7 +31037,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.560979662833475</v>
+        <v>1.525883042896476</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.831514208085649</v>
@@ -31234,7 +31126,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.553222484112583</v>
+        <v>1.516570243261372</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.549289207607035</v>
@@ -31323,7 +31215,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.542428694421117</v>
+        <v>1.511095079683261</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.616513662432198</v>
@@ -31412,7 +31304,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.525398205034382</v>
+        <v>1.498111500948077</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.657134291520046</v>
@@ -31501,7 +31393,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532583666459738</v>
+        <v>1.506295054626371</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.723594505535511</v>
@@ -31590,7 +31482,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.53189212993148</v>
+        <v>1.504100912949267</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.839689117342059</v>
@@ -31679,7 +31571,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.533939027272651</v>
+        <v>1.508716847122954</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.504207131337713</v>
@@ -31768,7 +31660,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.560273896510618</v>
+        <v>1.528451066524824</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.424909217767868</v>
@@ -31857,7 +31749,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.554680371897152</v>
+        <v>1.518716107660577</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.561503223798062</v>
@@ -31946,7 +31838,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.562728119700433</v>
+        <v>1.533349727905648</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.574456097634351</v>
@@ -32035,7 +31927,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.562281157762438</v>
+        <v>1.53690532083928</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.677006813078521</v>
@@ -32124,7 +32016,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.571741189515314</v>
+        <v>1.548994754450947</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.729365655565643</v>
@@ -32213,7 +32105,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.565558771552359</v>
+        <v>1.5424587987398</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.546055704739357</v>
@@ -32302,7 +32194,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.569168032164209</v>
+        <v>1.545453592535039</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.673559300721723</v>
@@ -32391,7 +32283,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.566812904897066</v>
+        <v>1.543571350415472</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.716184798800827</v>
@@ -32480,7 +32372,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.586871357205678</v>
+        <v>1.568599012312763</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.715879389835744</v>
@@ -32569,7 +32461,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.594623201831773</v>
+        <v>1.575144535625089</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.72246043399154</v>
@@ -32658,7 +32550,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.607651303747051</v>
+        <v>1.57897490992795</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.448195856695775</v>
@@ -32747,7 +32639,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.622451198550257</v>
+        <v>1.595317915854704</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.963477521310191</v>
@@ -32836,7 +32728,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.61530369390824</v>
+        <v>1.586916863816546</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.96201845107633</v>
@@ -32925,7 +32817,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602327421414817</v>
+        <v>1.57960744580585</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.77095214837159</v>
@@ -33014,7 +32906,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.588179190500801</v>
+        <v>1.56294130321365</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.969327390179968</v>
@@ -33103,7 +32995,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.570208298603559</v>
+        <v>1.554406867411852</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.528093441303731</v>
@@ -33192,7 +33084,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.571913365018839</v>
+        <v>1.556332502466299</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.737079380515566</v>
@@ -33281,7 +33173,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.554846723512038</v>
+        <v>1.536121681518497</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.550110411303567</v>
@@ -33370,7 +33262,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.551438793280157</v>
+        <v>1.537042818917502</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.613113614402812</v>
@@ -33459,7 +33351,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.546180766384983</v>
+        <v>1.520442503217866</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.756616697530958</v>
@@ -33548,7 +33440,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.562787139501698</v>
+        <v>1.535438788728837</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.510007314209686</v>
@@ -33637,7 +33529,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.574122919701968</v>
+        <v>1.542900977308083</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.579394041309691</v>
@@ -33726,7 +33618,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.577139835920407</v>
+        <v>1.544545563081229</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.655319403223086</v>
@@ -33815,7 +33707,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.573728506078057</v>
+        <v>1.538863942594582</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.575903671634534</v>
@@ -33904,7 +33796,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.572299180412085</v>
+        <v>1.536188884337547</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.687344733451948</v>
@@ -33993,7 +33885,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.556995962373802</v>
+        <v>1.523451443162176</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.743688930177887</v>
@@ -34279,7 +34171,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.354141082852838</v>
+        <v>1.322835144273352</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.268186236271523</v>
@@ -34368,7 +34260,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.370397852476853</v>
+        <v>1.340102128044242</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.241035968333971</v>
@@ -34457,7 +34349,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.365804915076487</v>
+        <v>1.334683739327187</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.354110663844636</v>
@@ -34546,7 +34438,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.385191804704338</v>
+        <v>1.352159569507408</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.179202634520597</v>
@@ -34635,7 +34527,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.396989961788863</v>
+        <v>1.363546019587337</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.122693552231391</v>
@@ -34724,7 +34616,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.401699404852037</v>
+        <v>1.369974211663497</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.038492041174389</v>
@@ -34813,7 +34705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.438767245321985</v>
+        <v>1.404563982634787</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.134287617582072</v>
@@ -34902,7 +34794,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.430557759003799</v>
+        <v>1.396804493797468</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.216166609737098</v>
@@ -34991,7 +34883,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.433687212873263</v>
+        <v>1.406104180690217</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.353964945548127</v>
@@ -35080,7 +34972,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403433172187695</v>
+        <v>1.380534830386697</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.271189390620699</v>
@@ -35169,7 +35061,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.409483077771706</v>
+        <v>1.384632264080832</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.322643338621843</v>
@@ -35258,7 +35150,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402004982176207</v>
+        <v>1.383031457867661</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.310252651752968</v>
@@ -35347,7 +35239,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.399771248398949</v>
+        <v>1.38589727282424</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.436521130970466</v>
@@ -35436,7 +35328,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.39345691526124</v>
+        <v>1.37806672348061</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.485552682030534</v>
@@ -35525,7 +35417,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.388552707283946</v>
+        <v>1.375158058246943</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.412464313099191</v>
@@ -35614,7 +35506,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.404497829166014</v>
+        <v>1.394361884134035</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.293242018774444</v>
@@ -35703,7 +35595,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.415834442256173</v>
+        <v>1.399947802949687</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.187776506096229</v>
@@ -35792,7 +35684,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.438243273348152</v>
+        <v>1.420255136503538</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.322419051865651</v>
@@ -35881,7 +35773,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.428223428376437</v>
+        <v>1.41137816831413</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.357461642363142</v>
@@ -35970,7 +35862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.410547367430672</v>
+        <v>1.393772734711842</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.379839630183123</v>
@@ -36059,7 +35951,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.405605907051503</v>
+        <v>1.384126225847892</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.380080351723452</v>
@@ -36148,7 +36040,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.371901420001267</v>
+        <v>1.359403925439997</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.076323587306116</v>
@@ -36237,7 +36129,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.381025982478768</v>
+        <v>1.370547111789324</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.185684021688276</v>
@@ -36326,7 +36218,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.393045318440454</v>
+        <v>1.381770982205454</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.073667565044386</v>
@@ -36415,7 +36307,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.410890122266476</v>
+        <v>1.393005358658179</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.075450535338445</v>
@@ -36504,7 +36396,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.417516311645757</v>
+        <v>1.396631888936936</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.117094109335103</v>
@@ -36593,7 +36485,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.390151519551635</v>
+        <v>1.372634230123046</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.186415486691504</v>
@@ -36682,7 +36574,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.410263608836114</v>
+        <v>1.392674483733019</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.145950602864743</v>
@@ -36771,7 +36663,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.388578211255405</v>
+        <v>1.372156223689702</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.096362941995797</v>
@@ -36860,7 +36752,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.387899319545333</v>
+        <v>1.366848682824806</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.073713391739111</v>
@@ -36949,7 +36841,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.383306615039561</v>
+        <v>1.358891758375749</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.103678580581893</v>
@@ -37038,7 +36930,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.361591700695558</v>
+        <v>1.336630863004141</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.157722615725822</v>
@@ -37127,7 +37019,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.361424701951012</v>
+        <v>1.336420713972999</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.150596102710648</v>
@@ -37216,7 +37108,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.379520303870885</v>
+        <v>1.356456712844421</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.150123372171633</v>
@@ -37305,7 +37197,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.391043058096521</v>
+        <v>1.369995714384563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.099524290946648</v>
@@ -37394,7 +37286,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.432152676426082</v>
+        <v>1.403187086630554</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.936645890258189</v>
@@ -37483,7 +37375,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.455735808741921</v>
+        <v>1.423560918615538</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.152020719257043</v>
@@ -37572,7 +37464,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458913610917271</v>
+        <v>1.431904640147927</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.119517995528601</v>
@@ -37661,7 +37553,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.471432504498112</v>
+        <v>1.442023205173957</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.160552918394123</v>
@@ -37750,7 +37642,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.471449445161296</v>
+        <v>1.445183529868813</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.130513200207652</v>
@@ -37839,7 +37731,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.453423323316479</v>
+        <v>1.430345351010723</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.052761249294482</v>
@@ -37928,7 +37820,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.463404360237937</v>
+        <v>1.434294353536472</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.195963938514629</v>
@@ -38017,7 +37909,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.456726867033244</v>
+        <v>1.423793590087369</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.124059076277175</v>
@@ -38106,7 +37998,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.490920807420659</v>
+        <v>1.459226359177586</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.246939556224699</v>
@@ -38195,7 +38087,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.495294449259916</v>
+        <v>1.464620779776574</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.175009796504181</v>
@@ -38284,7 +38176,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.499175766763166</v>
+        <v>1.460436872869015</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.093790113978611</v>
@@ -38373,7 +38265,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.494748138318108</v>
+        <v>1.469714569104477</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.242402508970417</v>
@@ -38462,7 +38354,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.48627274921504</v>
+        <v>1.46533955591469</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.236184684561801</v>
@@ -38551,7 +38443,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.479179464676554</v>
+        <v>1.456133059414956</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.238182040712929</v>
@@ -38640,7 +38532,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.469480258581454</v>
+        <v>1.442342234627753</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.327040839609001</v>
@@ -38729,7 +38621,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.432339973268936</v>
+        <v>1.413993875795172</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.177818691932683</v>
@@ -38818,7 +38710,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.421928193057527</v>
+        <v>1.405031140203573</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.167108733723794</v>
@@ -38907,7 +38799,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.406396229262788</v>
+        <v>1.385062022617531</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.171162280499139</v>
@@ -38996,7 +38888,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.396768358098216</v>
+        <v>1.380932616498973</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.153470574504923</v>
@@ -39085,7 +38977,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.386578880283048</v>
+        <v>1.366684660557815</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.317291626537921</v>
@@ -39174,7 +39066,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.409041355064552</v>
+        <v>1.38586665375968</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.183497879384581</v>
@@ -39263,7 +39155,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.439530797348831</v>
+        <v>1.416669200089826</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.185632285633735</v>
@@ -39352,7 +39244,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.442059387019047</v>
+        <v>1.42103692809422</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.216786906222914</v>
@@ -39441,7 +39333,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.416292149245036</v>
+        <v>1.394878445208533</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.11535220689223</v>
@@ -39530,7 +39422,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.409932659641334</v>
+        <v>1.38857345399821</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.191696972303465</v>
@@ -39619,7 +39511,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.408006284780332</v>
+        <v>1.386101114181012</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.273774306133629</v>
